--- a/stock_historical_data/1wk/AETHER.NS.xlsx
+++ b/stock_historical_data/1wk/AETHER.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P106"/>
+  <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +518,11 @@
           <t>two_line_structure</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -568,6 +573,9 @@
       <c r="P2" t="n">
         <v>0</v>
       </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -618,6 +626,9 @@
       <c r="P3" t="n">
         <v>0</v>
       </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -668,6 +679,9 @@
       <c r="P4" t="n">
         <v>0</v>
       </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -718,6 +732,9 @@
       <c r="P5" t="n">
         <v>0</v>
       </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -768,6 +785,9 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -818,6 +838,9 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -868,6 +891,9 @@
       <c r="P8" t="n">
         <v>0</v>
       </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -918,6 +944,9 @@
       <c r="P9" t="n">
         <v>0</v>
       </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -968,6 +997,9 @@
       <c r="P10" t="n">
         <v>0</v>
       </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1018,6 +1050,9 @@
       <c r="P11" t="n">
         <v>0</v>
       </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1068,6 +1103,9 @@
       <c r="P12" t="n">
         <v>0</v>
       </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1118,6 +1156,9 @@
       <c r="P13" t="n">
         <v>0</v>
       </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1168,6 +1209,9 @@
       <c r="P14" t="n">
         <v>0</v>
       </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1218,6 +1262,9 @@
       <c r="P15" t="n">
         <v>0</v>
       </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1268,6 +1315,9 @@
       <c r="P16" t="n">
         <v>0</v>
       </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1318,6 +1368,9 @@
       <c r="P17" t="n">
         <v>0</v>
       </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1368,6 +1421,9 @@
       <c r="P18" t="n">
         <v>0</v>
       </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1418,6 +1474,9 @@
       <c r="P19" t="n">
         <v>0</v>
       </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1468,6 +1527,9 @@
       <c r="P20" t="n">
         <v>0</v>
       </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1518,6 +1580,9 @@
       <c r="P21" t="n">
         <v>0</v>
       </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1568,6 +1633,9 @@
       <c r="P22" t="n">
         <v>0</v>
       </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1618,6 +1686,9 @@
       <c r="P23" t="n">
         <v>0</v>
       </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1668,6 +1739,9 @@
       <c r="P24" t="n">
         <v>0</v>
       </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1718,6 +1792,9 @@
       <c r="P25" t="n">
         <v>0</v>
       </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1768,6 +1845,9 @@
       <c r="P26" t="n">
         <v>0</v>
       </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1818,6 +1898,9 @@
       <c r="P27" t="n">
         <v>0</v>
       </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1868,6 +1951,9 @@
       <c r="P28" t="n">
         <v>0</v>
       </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1918,6 +2004,9 @@
       <c r="P29" t="n">
         <v>0</v>
       </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1968,6 +2057,9 @@
       <c r="P30" t="n">
         <v>0</v>
       </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2018,6 +2110,9 @@
       <c r="P31" t="n">
         <v>0</v>
       </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2068,6 +2163,9 @@
       <c r="P32" t="n">
         <v>0</v>
       </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2118,6 +2216,9 @@
       <c r="P33" t="n">
         <v>0</v>
       </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2168,6 +2269,9 @@
       <c r="P34" t="n">
         <v>0</v>
       </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2218,6 +2322,9 @@
       <c r="P35" t="n">
         <v>0</v>
       </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2268,6 +2375,9 @@
       <c r="P36" t="n">
         <v>0</v>
       </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2318,6 +2428,9 @@
       <c r="P37" t="n">
         <v>1</v>
       </c>
+      <c r="Q37" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2368,6 +2481,9 @@
       <c r="P38" t="n">
         <v>0</v>
       </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2418,6 +2534,9 @@
       <c r="P39" t="n">
         <v>0</v>
       </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2468,6 +2587,9 @@
       <c r="P40" t="n">
         <v>0</v>
       </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2518,6 +2640,9 @@
       <c r="P41" t="n">
         <v>0</v>
       </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2568,6 +2693,9 @@
       <c r="P42" t="n">
         <v>0</v>
       </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2618,6 +2746,9 @@
       <c r="P43" t="n">
         <v>0</v>
       </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2668,6 +2799,9 @@
       <c r="P44" t="n">
         <v>0</v>
       </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2718,6 +2852,9 @@
       <c r="P45" t="n">
         <v>0</v>
       </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2768,6 +2905,9 @@
       <c r="P46" t="n">
         <v>0</v>
       </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2818,6 +2958,9 @@
       <c r="P47" t="n">
         <v>0</v>
       </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -2868,6 +3011,9 @@
       <c r="P48" t="n">
         <v>1</v>
       </c>
+      <c r="Q48" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -2918,6 +3064,9 @@
       <c r="P49" t="n">
         <v>0</v>
       </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -2968,6 +3117,9 @@
       <c r="P50" t="n">
         <v>0</v>
       </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -3018,6 +3170,9 @@
       <c r="P51" t="n">
         <v>0</v>
       </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -3068,6 +3223,9 @@
       <c r="P52" t="n">
         <v>0</v>
       </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -3118,6 +3276,9 @@
       <c r="P53" t="n">
         <v>0</v>
       </c>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3168,6 +3329,9 @@
       <c r="P54" t="n">
         <v>0</v>
       </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3218,6 +3382,9 @@
       <c r="P55" t="n">
         <v>0</v>
       </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -3268,6 +3435,9 @@
       <c r="P56" t="n">
         <v>0</v>
       </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3318,6 +3488,9 @@
       <c r="P57" t="n">
         <v>0</v>
       </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3368,6 +3541,9 @@
       <c r="P58" t="n">
         <v>0</v>
       </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -3418,6 +3594,9 @@
       <c r="P59" t="n">
         <v>0</v>
       </c>
+      <c r="Q59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -3468,6 +3647,9 @@
       <c r="P60" t="n">
         <v>0</v>
       </c>
+      <c r="Q60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -3518,6 +3700,9 @@
       <c r="P61" t="n">
         <v>0</v>
       </c>
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -3568,6 +3753,9 @@
       <c r="P62" t="n">
         <v>0</v>
       </c>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -3618,6 +3806,9 @@
       <c r="P63" t="n">
         <v>0</v>
       </c>
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -3668,6 +3859,9 @@
       <c r="P64" t="n">
         <v>0</v>
       </c>
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -3718,6 +3912,9 @@
       <c r="P65" t="n">
         <v>0</v>
       </c>
+      <c r="Q65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -3768,6 +3965,9 @@
       <c r="P66" t="n">
         <v>0</v>
       </c>
+      <c r="Q66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -3818,6 +4018,9 @@
       <c r="P67" t="n">
         <v>0</v>
       </c>
+      <c r="Q67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -3868,6 +4071,9 @@
       <c r="P68" t="n">
         <v>0</v>
       </c>
+      <c r="Q68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -3918,6 +4124,9 @@
       <c r="P69" t="n">
         <v>0</v>
       </c>
+      <c r="Q69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -3968,6 +4177,9 @@
       <c r="P70" t="n">
         <v>0</v>
       </c>
+      <c r="Q70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -4018,6 +4230,9 @@
       <c r="P71" t="n">
         <v>0</v>
       </c>
+      <c r="Q71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -4068,6 +4283,9 @@
       <c r="P72" t="n">
         <v>0</v>
       </c>
+      <c r="Q72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -4118,6 +4336,9 @@
       <c r="P73" t="n">
         <v>0</v>
       </c>
+      <c r="Q73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -4168,6 +4389,9 @@
       <c r="P74" t="n">
         <v>0</v>
       </c>
+      <c r="Q74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -4218,6 +4442,9 @@
       <c r="P75" t="n">
         <v>0</v>
       </c>
+      <c r="Q75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -4268,6 +4495,9 @@
       <c r="P76" t="n">
         <v>0</v>
       </c>
+      <c r="Q76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -4318,6 +4548,9 @@
       <c r="P77" t="n">
         <v>0</v>
       </c>
+      <c r="Q77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -4368,6 +4601,9 @@
       <c r="P78" t="n">
         <v>0</v>
       </c>
+      <c r="Q78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -4418,6 +4654,9 @@
       <c r="P79" t="n">
         <v>0</v>
       </c>
+      <c r="Q79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -4468,6 +4707,9 @@
       <c r="P80" t="n">
         <v>0</v>
       </c>
+      <c r="Q80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -4518,6 +4760,9 @@
       <c r="P81" t="n">
         <v>0</v>
       </c>
+      <c r="Q81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -4568,6 +4813,9 @@
       <c r="P82" t="n">
         <v>0</v>
       </c>
+      <c r="Q82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -4618,6 +4866,9 @@
       <c r="P83" t="n">
         <v>0</v>
       </c>
+      <c r="Q83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -4668,6 +4919,9 @@
       <c r="P84" t="n">
         <v>0</v>
       </c>
+      <c r="Q84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -4718,6 +4972,9 @@
       <c r="P85" t="n">
         <v>0</v>
       </c>
+      <c r="Q85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -4768,6 +5025,9 @@
       <c r="P86" t="n">
         <v>0</v>
       </c>
+      <c r="Q86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -4818,6 +5078,9 @@
       <c r="P87" t="n">
         <v>0</v>
       </c>
+      <c r="Q87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -4868,6 +5131,9 @@
       <c r="P88" t="n">
         <v>0</v>
       </c>
+      <c r="Q88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -4918,6 +5184,9 @@
       <c r="P89" t="n">
         <v>0</v>
       </c>
+      <c r="Q89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -4968,6 +5237,9 @@
       <c r="P90" t="n">
         <v>0</v>
       </c>
+      <c r="Q90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -5018,6 +5290,9 @@
       <c r="P91" t="n">
         <v>0</v>
       </c>
+      <c r="Q91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -5068,6 +5343,9 @@
       <c r="P92" t="n">
         <v>0</v>
       </c>
+      <c r="Q92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -5118,6 +5396,9 @@
       <c r="P93" t="n">
         <v>0</v>
       </c>
+      <c r="Q93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -5168,6 +5449,9 @@
       <c r="P94" t="n">
         <v>0</v>
       </c>
+      <c r="Q94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -5218,6 +5502,9 @@
       <c r="P95" t="n">
         <v>0</v>
       </c>
+      <c r="Q95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -5268,6 +5555,9 @@
       <c r="P96" t="n">
         <v>0</v>
       </c>
+      <c r="Q96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -5318,6 +5608,9 @@
       <c r="P97" t="n">
         <v>0</v>
       </c>
+      <c r="Q97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -5368,6 +5661,9 @@
       <c r="P98" t="n">
         <v>0</v>
       </c>
+      <c r="Q98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -5418,6 +5714,9 @@
       <c r="P99" t="n">
         <v>0</v>
       </c>
+      <c r="Q99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -5468,6 +5767,9 @@
       <c r="P100" t="n">
         <v>0</v>
       </c>
+      <c r="Q100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -5518,6 +5820,9 @@
       <c r="P101" t="n">
         <v>0</v>
       </c>
+      <c r="Q101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -5568,6 +5873,9 @@
       <c r="P102" t="n">
         <v>0</v>
       </c>
+      <c r="Q102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -5618,6 +5926,9 @@
       <c r="P103" t="n">
         <v>0</v>
       </c>
+      <c r="Q103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -5668,6 +5979,9 @@
       <c r="P104" t="n">
         <v>0</v>
       </c>
+      <c r="Q104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -5718,6 +6032,9 @@
       <c r="P105" t="n">
         <v>0</v>
       </c>
+      <c r="Q105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -5768,6 +6085,60 @@
       <c r="P106" t="n">
         <v>0</v>
       </c>
+      <c r="Q106" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>45446</v>
+      </c>
+      <c r="B107" t="n">
+        <v>821.5</v>
+      </c>
+      <c r="C107" t="n">
+        <v>822</v>
+      </c>
+      <c r="D107" t="n">
+        <v>806.25</v>
+      </c>
+      <c r="E107" t="n">
+        <v>808.5</v>
+      </c>
+      <c r="F107" t="n">
+        <v>808.5</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I107" t="n">
+        <v>6</v>
+      </c>
+      <c r="J107" t="n">
+        <v>3</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0</v>
+      </c>
+      <c r="N107" t="n">
+        <v>23</v>
+      </c>
+      <c r="O107" t="n">
+        <v>0</v>
+      </c>
+      <c r="P107" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q107" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/AETHER.NS.xlsx
+++ b/stock_historical_data/1wk/AETHER.NS.xlsx
@@ -6138,7 +6138,9 @@
       <c r="P107" t="n">
         <v>0</v>
       </c>
-      <c r="Q107" t="inlineStr"/>
+      <c r="Q107" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/AETHER.NS.xlsx
+++ b/stock_historical_data/1wk/AETHER.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q107"/>
+  <dimension ref="A1:R108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,6 +523,11 @@
           <t>detect_structure</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -576,6 +581,9 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -629,6 +637,9 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -682,6 +693,9 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -735,6 +749,9 @@
       <c r="Q5" t="n">
         <v>0</v>
       </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -788,6 +805,9 @@
       <c r="Q6" t="n">
         <v>0</v>
       </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -841,6 +861,9 @@
       <c r="Q7" t="n">
         <v>0</v>
       </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -894,6 +917,9 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -947,6 +973,9 @@
       <c r="Q9" t="n">
         <v>0</v>
       </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1000,6 +1029,9 @@
       <c r="Q10" t="n">
         <v>0</v>
       </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1053,6 +1085,9 @@
       <c r="Q11" t="n">
         <v>0</v>
       </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1106,6 +1141,9 @@
       <c r="Q12" t="n">
         <v>0</v>
       </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1159,6 +1197,9 @@
       <c r="Q13" t="n">
         <v>0</v>
       </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1212,6 +1253,9 @@
       <c r="Q14" t="n">
         <v>0</v>
       </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1265,6 +1309,9 @@
       <c r="Q15" t="n">
         <v>0</v>
       </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1318,6 +1365,9 @@
       <c r="Q16" t="n">
         <v>0</v>
       </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1371,6 +1421,9 @@
       <c r="Q17" t="n">
         <v>0</v>
       </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1424,6 +1477,9 @@
       <c r="Q18" t="n">
         <v>0</v>
       </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1477,6 +1533,9 @@
       <c r="Q19" t="n">
         <v>0</v>
       </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1530,6 +1589,9 @@
       <c r="Q20" t="n">
         <v>0</v>
       </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1583,6 +1645,9 @@
       <c r="Q21" t="n">
         <v>0</v>
       </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1636,6 +1701,9 @@
       <c r="Q22" t="n">
         <v>0</v>
       </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1687,7 +1755,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1742,6 +1813,9 @@
       <c r="Q24" t="n">
         <v>0</v>
       </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1795,6 +1869,9 @@
       <c r="Q25" t="n">
         <v>0</v>
       </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1848,6 +1925,9 @@
       <c r="Q26" t="n">
         <v>0</v>
       </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1901,6 +1981,9 @@
       <c r="Q27" t="n">
         <v>0</v>
       </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1954,6 +2037,9 @@
       <c r="Q28" t="n">
         <v>0</v>
       </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -2007,6 +2093,9 @@
       <c r="Q29" t="n">
         <v>0</v>
       </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -2060,6 +2149,9 @@
       <c r="Q30" t="n">
         <v>0</v>
       </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2113,6 +2205,9 @@
       <c r="Q31" t="n">
         <v>0</v>
       </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2166,6 +2261,9 @@
       <c r="Q32" t="n">
         <v>0</v>
       </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2219,6 +2317,9 @@
       <c r="Q33" t="n">
         <v>0</v>
       </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2272,6 +2373,9 @@
       <c r="Q34" t="n">
         <v>0</v>
       </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2325,6 +2429,9 @@
       <c r="Q35" t="n">
         <v>0</v>
       </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2378,6 +2485,9 @@
       <c r="Q36" t="n">
         <v>0</v>
       </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2431,6 +2541,9 @@
       <c r="Q37" t="n">
         <v>1</v>
       </c>
+      <c r="R37" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2484,6 +2597,9 @@
       <c r="Q38" t="n">
         <v>0</v>
       </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2537,6 +2653,9 @@
       <c r="Q39" t="n">
         <v>0</v>
       </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2590,6 +2709,9 @@
       <c r="Q40" t="n">
         <v>0</v>
       </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2643,6 +2765,9 @@
       <c r="Q41" t="n">
         <v>0</v>
       </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2694,7 +2819,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -2749,6 +2877,9 @@
       <c r="Q43" t="n">
         <v>0</v>
       </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2802,6 +2933,9 @@
       <c r="Q44" t="n">
         <v>0</v>
       </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2855,6 +2989,9 @@
       <c r="Q45" t="n">
         <v>0</v>
       </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2908,6 +3045,9 @@
       <c r="Q46" t="n">
         <v>0</v>
       </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2961,6 +3101,9 @@
       <c r="Q47" t="n">
         <v>0</v>
       </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -3014,6 +3157,9 @@
       <c r="Q48" t="n">
         <v>1</v>
       </c>
+      <c r="R48" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -3067,6 +3213,9 @@
       <c r="Q49" t="n">
         <v>0</v>
       </c>
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -3120,6 +3269,9 @@
       <c r="Q50" t="n">
         <v>0</v>
       </c>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -3173,6 +3325,9 @@
       <c r="Q51" t="n">
         <v>0</v>
       </c>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -3226,6 +3381,9 @@
       <c r="Q52" t="n">
         <v>0</v>
       </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -3279,6 +3437,9 @@
       <c r="Q53" t="n">
         <v>0</v>
       </c>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3332,6 +3493,9 @@
       <c r="Q54" t="n">
         <v>0</v>
       </c>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3385,6 +3549,9 @@
       <c r="Q55" t="n">
         <v>0</v>
       </c>
+      <c r="R55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -3438,6 +3605,9 @@
       <c r="Q56" t="n">
         <v>0</v>
       </c>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3491,6 +3661,9 @@
       <c r="Q57" t="n">
         <v>0</v>
       </c>
+      <c r="R57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3544,6 +3717,9 @@
       <c r="Q58" t="n">
         <v>0</v>
       </c>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -3597,6 +3773,9 @@
       <c r="Q59" t="n">
         <v>0</v>
       </c>
+      <c r="R59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -3650,6 +3829,9 @@
       <c r="Q60" t="n">
         <v>1</v>
       </c>
+      <c r="R60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -3703,6 +3885,9 @@
       <c r="Q61" t="n">
         <v>0</v>
       </c>
+      <c r="R61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -3756,6 +3941,9 @@
       <c r="Q62" t="n">
         <v>0</v>
       </c>
+      <c r="R62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -3809,6 +3997,9 @@
       <c r="Q63" t="n">
         <v>2</v>
       </c>
+      <c r="R63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -3862,6 +4053,9 @@
       <c r="Q64" t="n">
         <v>0</v>
       </c>
+      <c r="R64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -3915,6 +4109,9 @@
       <c r="Q65" t="n">
         <v>0</v>
       </c>
+      <c r="R65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -3968,6 +4165,9 @@
       <c r="Q66" t="n">
         <v>0</v>
       </c>
+      <c r="R66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -4021,6 +4221,9 @@
       <c r="Q67" t="n">
         <v>0</v>
       </c>
+      <c r="R67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -4074,6 +4277,9 @@
       <c r="Q68" t="n">
         <v>0</v>
       </c>
+      <c r="R68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -4127,6 +4333,9 @@
       <c r="Q69" t="n">
         <v>0</v>
       </c>
+      <c r="R69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -4180,6 +4389,9 @@
       <c r="Q70" t="n">
         <v>0</v>
       </c>
+      <c r="R70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -4233,6 +4445,9 @@
       <c r="Q71" t="n">
         <v>0</v>
       </c>
+      <c r="R71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -4286,6 +4501,9 @@
       <c r="Q72" t="n">
         <v>0</v>
       </c>
+      <c r="R72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -4339,6 +4557,9 @@
       <c r="Q73" t="n">
         <v>0</v>
       </c>
+      <c r="R73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -4392,6 +4613,9 @@
       <c r="Q74" t="n">
         <v>0</v>
       </c>
+      <c r="R74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -4445,6 +4669,9 @@
       <c r="Q75" t="n">
         <v>0</v>
       </c>
+      <c r="R75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -4498,6 +4725,9 @@
       <c r="Q76" t="n">
         <v>0</v>
       </c>
+      <c r="R76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -4551,6 +4781,9 @@
       <c r="Q77" t="n">
         <v>0</v>
       </c>
+      <c r="R77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -4604,6 +4837,9 @@
       <c r="Q78" t="n">
         <v>0</v>
       </c>
+      <c r="R78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -4657,6 +4893,9 @@
       <c r="Q79" t="n">
         <v>0</v>
       </c>
+      <c r="R79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -4710,6 +4949,9 @@
       <c r="Q80" t="n">
         <v>0</v>
       </c>
+      <c r="R80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -4763,6 +5005,9 @@
       <c r="Q81" t="n">
         <v>0</v>
       </c>
+      <c r="R81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -4816,6 +5061,9 @@
       <c r="Q82" t="n">
         <v>0</v>
       </c>
+      <c r="R82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -4869,6 +5117,9 @@
       <c r="Q83" t="n">
         <v>0</v>
       </c>
+      <c r="R83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -4922,6 +5173,9 @@
       <c r="Q84" t="n">
         <v>0</v>
       </c>
+      <c r="R84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -4975,6 +5229,9 @@
       <c r="Q85" t="n">
         <v>0</v>
       </c>
+      <c r="R85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -5028,6 +5285,9 @@
       <c r="Q86" t="n">
         <v>1</v>
       </c>
+      <c r="R86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -5081,6 +5341,9 @@
       <c r="Q87" t="n">
         <v>0</v>
       </c>
+      <c r="R87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -5134,6 +5397,9 @@
       <c r="Q88" t="n">
         <v>0</v>
       </c>
+      <c r="R88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -5187,6 +5453,9 @@
       <c r="Q89" t="n">
         <v>2</v>
       </c>
+      <c r="R89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -5240,6 +5509,9 @@
       <c r="Q90" t="n">
         <v>0</v>
       </c>
+      <c r="R90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -5293,6 +5565,9 @@
       <c r="Q91" t="n">
         <v>0</v>
       </c>
+      <c r="R91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -5346,6 +5621,9 @@
       <c r="Q92" t="n">
         <v>0</v>
       </c>
+      <c r="R92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -5399,6 +5677,9 @@
       <c r="Q93" t="n">
         <v>0</v>
       </c>
+      <c r="R93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -5452,6 +5733,9 @@
       <c r="Q94" t="n">
         <v>0</v>
       </c>
+      <c r="R94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -5505,6 +5789,9 @@
       <c r="Q95" t="n">
         <v>1</v>
       </c>
+      <c r="R95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -5558,6 +5845,9 @@
       <c r="Q96" t="n">
         <v>0</v>
       </c>
+      <c r="R96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -5611,6 +5901,9 @@
       <c r="Q97" t="n">
         <v>0</v>
       </c>
+      <c r="R97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -5664,6 +5957,9 @@
       <c r="Q98" t="n">
         <v>0</v>
       </c>
+      <c r="R98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -5717,6 +6013,9 @@
       <c r="Q99" t="n">
         <v>0</v>
       </c>
+      <c r="R99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -5770,6 +6069,9 @@
       <c r="Q100" t="n">
         <v>0</v>
       </c>
+      <c r="R100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -5823,6 +6125,9 @@
       <c r="Q101" t="n">
         <v>0</v>
       </c>
+      <c r="R101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -5876,6 +6181,9 @@
       <c r="Q102" t="n">
         <v>0</v>
       </c>
+      <c r="R102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -5929,6 +6237,9 @@
       <c r="Q103" t="n">
         <v>1</v>
       </c>
+      <c r="R103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -5982,6 +6293,9 @@
       <c r="Q104" t="n">
         <v>0</v>
       </c>
+      <c r="R104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -6035,6 +6349,9 @@
       <c r="Q105" t="n">
         <v>0</v>
       </c>
+      <c r="R105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -6088,6 +6405,9 @@
       <c r="Q106" t="n">
         <v>0</v>
       </c>
+      <c r="R106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -6141,6 +6461,63 @@
       <c r="Q107" t="n">
         <v>0</v>
       </c>
+      <c r="R107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="B108" t="n">
+        <v>819.2999877929688</v>
+      </c>
+      <c r="C108" t="n">
+        <v>829.9000244140625</v>
+      </c>
+      <c r="D108" t="n">
+        <v>806.0499877929688</v>
+      </c>
+      <c r="E108" t="n">
+        <v>827.0499877929688</v>
+      </c>
+      <c r="F108" t="n">
+        <v>827.0499877929688</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0</v>
+      </c>
+      <c r="H108" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I108" t="n">
+        <v>6</v>
+      </c>
+      <c r="J108" t="n">
+        <v>10</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0</v>
+      </c>
+      <c r="L108" t="n">
+        <v>0</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0</v>
+      </c>
+      <c r="N108" t="n">
+        <v>24</v>
+      </c>
+      <c r="O108" t="n">
+        <v>0</v>
+      </c>
+      <c r="P108" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>0</v>
+      </c>
+      <c r="R108" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/AETHER.NS.xlsx
+++ b/stock_historical_data/1wk/AETHER.NS.xlsx
@@ -6517,7 +6517,9 @@
       <c r="Q108" t="n">
         <v>0</v>
       </c>
-      <c r="R108" t="inlineStr"/>
+      <c r="R108" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/AETHER.NS.xlsx
+++ b/stock_historical_data/1wk/AETHER.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R108"/>
+  <dimension ref="A1:R110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6521,6 +6521,114 @@
         <v>0</v>
       </c>
     </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B109" t="n">
+        <v>869.9500122070312</v>
+      </c>
+      <c r="C109" t="n">
+        <v>890</v>
+      </c>
+      <c r="D109" t="n">
+        <v>860.0499877929688</v>
+      </c>
+      <c r="E109" t="n">
+        <v>863.2000122070312</v>
+      </c>
+      <c r="F109" t="n">
+        <v>863.2000122070312</v>
+      </c>
+      <c r="G109" t="n">
+        <v>504540</v>
+      </c>
+      <c r="H109" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I109" t="n">
+        <v>6</v>
+      </c>
+      <c r="J109" t="n">
+        <v>17</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0</v>
+      </c>
+      <c r="L109" t="n">
+        <v>0</v>
+      </c>
+      <c r="M109" t="n">
+        <v>0</v>
+      </c>
+      <c r="N109" t="n">
+        <v>25</v>
+      </c>
+      <c r="O109" t="n">
+        <v>0</v>
+      </c>
+      <c r="P109" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>0</v>
+      </c>
+      <c r="R109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B110" t="n">
+        <v>874</v>
+      </c>
+      <c r="C110" t="n">
+        <v>973</v>
+      </c>
+      <c r="D110" t="n">
+        <v>855.0499877929688</v>
+      </c>
+      <c r="E110" t="n">
+        <v>922.4500122070312</v>
+      </c>
+      <c r="F110" t="n">
+        <v>922.4500122070312</v>
+      </c>
+      <c r="G110" t="n">
+        <v>1675682</v>
+      </c>
+      <c r="H110" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I110" t="n">
+        <v>6</v>
+      </c>
+      <c r="J110" t="n">
+        <v>24</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0</v>
+      </c>
+      <c r="L110" t="n">
+        <v>0</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0</v>
+      </c>
+      <c r="N110" t="n">
+        <v>26</v>
+      </c>
+      <c r="O110" t="n">
+        <v>0</v>
+      </c>
+      <c r="P110" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>0</v>
+      </c>
+      <c r="R110" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1wk/AETHER.NS.xlsx
+++ b/stock_historical_data/1wk/AETHER.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R110"/>
+  <dimension ref="A1:R145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3827,7 +3827,7 @@
         <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R60" t="n">
         <v>0</v>
@@ -3995,7 +3995,7 @@
         <v>0</v>
       </c>
       <c r="Q63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R63" t="n">
         <v>0</v>
@@ -5283,7 +5283,7 @@
         <v>0</v>
       </c>
       <c r="Q86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R86" t="n">
         <v>0</v>
@@ -6453,7 +6453,7 @@
         <v>23</v>
       </c>
       <c r="O107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P107" t="n">
         <v>0</v>
@@ -6573,7 +6573,9 @@
       <c r="Q109" t="n">
         <v>0</v>
       </c>
-      <c r="R109" t="inlineStr"/>
+      <c r="R109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -6619,7 +6621,7 @@
         <v>26</v>
       </c>
       <c r="O110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P110" t="n">
         <v>0</v>
@@ -6627,7 +6629,1829 @@
       <c r="Q110" t="n">
         <v>0</v>
       </c>
-      <c r="R110" t="inlineStr"/>
+      <c r="R110" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B111" t="n">
+        <v>928</v>
+      </c>
+      <c r="C111" t="n">
+        <v>938.4000244140625</v>
+      </c>
+      <c r="D111" t="n">
+        <v>906.5999755859375</v>
+      </c>
+      <c r="E111" t="n">
+        <v>917.2999877929688</v>
+      </c>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="n">
+        <v>374960</v>
+      </c>
+      <c r="H111" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I111" t="n">
+        <v>7</v>
+      </c>
+      <c r="J111" t="n">
+        <v>1</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0</v>
+      </c>
+      <c r="L111" t="n">
+        <v>0</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0</v>
+      </c>
+      <c r="N111" t="n">
+        <v>27</v>
+      </c>
+      <c r="O111" t="n">
+        <v>0</v>
+      </c>
+      <c r="P111" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>0</v>
+      </c>
+      <c r="R111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B112" t="n">
+        <v>912.0999755859375</v>
+      </c>
+      <c r="C112" t="n">
+        <v>925</v>
+      </c>
+      <c r="D112" t="n">
+        <v>880.2000122070312</v>
+      </c>
+      <c r="E112" t="n">
+        <v>886.4000244140625</v>
+      </c>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="n">
+        <v>284937</v>
+      </c>
+      <c r="H112" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I112" t="n">
+        <v>7</v>
+      </c>
+      <c r="J112" t="n">
+        <v>8</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0</v>
+      </c>
+      <c r="L112" t="n">
+        <v>0</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0</v>
+      </c>
+      <c r="N112" t="n">
+        <v>28</v>
+      </c>
+      <c r="O112" t="n">
+        <v>0</v>
+      </c>
+      <c r="P112" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>0</v>
+      </c>
+      <c r="R112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B113" t="n">
+        <v>886.4000244140625</v>
+      </c>
+      <c r="C113" t="n">
+        <v>909.8499755859375</v>
+      </c>
+      <c r="D113" t="n">
+        <v>859</v>
+      </c>
+      <c r="E113" t="n">
+        <v>881.0999755859375</v>
+      </c>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="n">
+        <v>349766</v>
+      </c>
+      <c r="H113" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I113" t="n">
+        <v>7</v>
+      </c>
+      <c r="J113" t="n">
+        <v>15</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0</v>
+      </c>
+      <c r="N113" t="n">
+        <v>29</v>
+      </c>
+      <c r="O113" t="n">
+        <v>0</v>
+      </c>
+      <c r="P113" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>1</v>
+      </c>
+      <c r="R113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B114" t="n">
+        <v>881.0499877929688</v>
+      </c>
+      <c r="C114" t="n">
+        <v>930</v>
+      </c>
+      <c r="D114" t="n">
+        <v>869.5999755859375</v>
+      </c>
+      <c r="E114" t="n">
+        <v>904.5</v>
+      </c>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="n">
+        <v>333275</v>
+      </c>
+      <c r="H114" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I114" t="n">
+        <v>7</v>
+      </c>
+      <c r="J114" t="n">
+        <v>22</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0</v>
+      </c>
+      <c r="L114" t="n">
+        <v>0</v>
+      </c>
+      <c r="M114" t="n">
+        <v>0</v>
+      </c>
+      <c r="N114" t="n">
+        <v>30</v>
+      </c>
+      <c r="O114" t="n">
+        <v>0</v>
+      </c>
+      <c r="P114" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>0</v>
+      </c>
+      <c r="R114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B115" t="n">
+        <v>905.7000122070312</v>
+      </c>
+      <c r="C115" t="n">
+        <v>923.0999755859375</v>
+      </c>
+      <c r="D115" t="n">
+        <v>887</v>
+      </c>
+      <c r="E115" t="n">
+        <v>905.7000122070312</v>
+      </c>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="n">
+        <v>291935</v>
+      </c>
+      <c r="H115" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I115" t="n">
+        <v>7</v>
+      </c>
+      <c r="J115" t="n">
+        <v>29</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0</v>
+      </c>
+      <c r="N115" t="n">
+        <v>31</v>
+      </c>
+      <c r="O115" t="n">
+        <v>0</v>
+      </c>
+      <c r="P115" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>0</v>
+      </c>
+      <c r="R115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B116" t="n">
+        <v>889</v>
+      </c>
+      <c r="C116" t="n">
+        <v>900.5</v>
+      </c>
+      <c r="D116" t="n">
+        <v>861</v>
+      </c>
+      <c r="E116" t="n">
+        <v>880.7000122070312</v>
+      </c>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="n">
+        <v>267765</v>
+      </c>
+      <c r="H116" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I116" t="n">
+        <v>8</v>
+      </c>
+      <c r="J116" t="n">
+        <v>5</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0</v>
+      </c>
+      <c r="L116" t="n">
+        <v>0</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0</v>
+      </c>
+      <c r="N116" t="n">
+        <v>32</v>
+      </c>
+      <c r="O116" t="n">
+        <v>0</v>
+      </c>
+      <c r="P116" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>2</v>
+      </c>
+      <c r="R116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B117" t="n">
+        <v>880</v>
+      </c>
+      <c r="C117" t="n">
+        <v>934.7999877929688</v>
+      </c>
+      <c r="D117" t="n">
+        <v>867.0499877929688</v>
+      </c>
+      <c r="E117" t="n">
+        <v>902.7999877929688</v>
+      </c>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>245615</v>
+      </c>
+      <c r="H117" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I117" t="n">
+        <v>8</v>
+      </c>
+      <c r="J117" t="n">
+        <v>12</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0</v>
+      </c>
+      <c r="L117" t="n">
+        <v>0</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0</v>
+      </c>
+      <c r="N117" t="n">
+        <v>33</v>
+      </c>
+      <c r="O117" t="n">
+        <v>0</v>
+      </c>
+      <c r="P117" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>0</v>
+      </c>
+      <c r="R117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B118" t="n">
+        <v>897</v>
+      </c>
+      <c r="C118" t="n">
+        <v>935</v>
+      </c>
+      <c r="D118" t="n">
+        <v>895.0999755859375</v>
+      </c>
+      <c r="E118" t="n">
+        <v>902.7999877929688</v>
+      </c>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="n">
+        <v>406074</v>
+      </c>
+      <c r="H118" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I118" t="n">
+        <v>8</v>
+      </c>
+      <c r="J118" t="n">
+        <v>19</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0</v>
+      </c>
+      <c r="L118" t="n">
+        <v>0</v>
+      </c>
+      <c r="M118" t="n">
+        <v>0</v>
+      </c>
+      <c r="N118" t="n">
+        <v>34</v>
+      </c>
+      <c r="O118" t="n">
+        <v>0</v>
+      </c>
+      <c r="P118" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>0</v>
+      </c>
+      <c r="R118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B119" t="n">
+        <v>907.7000122070312</v>
+      </c>
+      <c r="C119" t="n">
+        <v>910.5</v>
+      </c>
+      <c r="D119" t="n">
+        <v>871</v>
+      </c>
+      <c r="E119" t="n">
+        <v>890.25</v>
+      </c>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="n">
+        <v>272800</v>
+      </c>
+      <c r="H119" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I119" t="n">
+        <v>8</v>
+      </c>
+      <c r="J119" t="n">
+        <v>26</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0</v>
+      </c>
+      <c r="M119" t="n">
+        <v>0</v>
+      </c>
+      <c r="N119" t="n">
+        <v>35</v>
+      </c>
+      <c r="O119" t="n">
+        <v>0</v>
+      </c>
+      <c r="P119" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>0</v>
+      </c>
+      <c r="R119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B120" t="n">
+        <v>892</v>
+      </c>
+      <c r="C120" t="n">
+        <v>957.9000244140625</v>
+      </c>
+      <c r="D120" t="n">
+        <v>875</v>
+      </c>
+      <c r="E120" t="n">
+        <v>935.7000122070312</v>
+      </c>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="n">
+        <v>1063542</v>
+      </c>
+      <c r="H120" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I120" t="n">
+        <v>9</v>
+      </c>
+      <c r="J120" t="n">
+        <v>2</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0</v>
+      </c>
+      <c r="L120" t="n">
+        <v>0</v>
+      </c>
+      <c r="M120" t="n">
+        <v>0</v>
+      </c>
+      <c r="N120" t="n">
+        <v>36</v>
+      </c>
+      <c r="O120" t="n">
+        <v>0</v>
+      </c>
+      <c r="P120" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>0</v>
+      </c>
+      <c r="R120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B121" t="n">
+        <v>922.0999755859375</v>
+      </c>
+      <c r="C121" t="n">
+        <v>1071</v>
+      </c>
+      <c r="D121" t="n">
+        <v>909.0499877929688</v>
+      </c>
+      <c r="E121" t="n">
+        <v>996.8499755859375</v>
+      </c>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="n">
+        <v>2591873</v>
+      </c>
+      <c r="H121" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I121" t="n">
+        <v>9</v>
+      </c>
+      <c r="J121" t="n">
+        <v>9</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0</v>
+      </c>
+      <c r="L121" t="n">
+        <v>0</v>
+      </c>
+      <c r="M121" t="n">
+        <v>0</v>
+      </c>
+      <c r="N121" t="n">
+        <v>37</v>
+      </c>
+      <c r="O121" t="n">
+        <v>1</v>
+      </c>
+      <c r="P121" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>0</v>
+      </c>
+      <c r="R121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B122" t="n">
+        <v>997</v>
+      </c>
+      <c r="C122" t="n">
+        <v>1019</v>
+      </c>
+      <c r="D122" t="n">
+        <v>960.5499877929688</v>
+      </c>
+      <c r="E122" t="n">
+        <v>969.6500244140625</v>
+      </c>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="n">
+        <v>342994</v>
+      </c>
+      <c r="H122" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I122" t="n">
+        <v>9</v>
+      </c>
+      <c r="J122" t="n">
+        <v>16</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0</v>
+      </c>
+      <c r="M122" t="n">
+        <v>0</v>
+      </c>
+      <c r="N122" t="n">
+        <v>38</v>
+      </c>
+      <c r="O122" t="n">
+        <v>0</v>
+      </c>
+      <c r="P122" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>0</v>
+      </c>
+      <c r="R122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B123" t="n">
+        <v>969.6500244140625</v>
+      </c>
+      <c r="C123" t="n">
+        <v>1014</v>
+      </c>
+      <c r="D123" t="n">
+        <v>912.2999877929688</v>
+      </c>
+      <c r="E123" t="n">
+        <v>923.25</v>
+      </c>
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="n">
+        <v>596270</v>
+      </c>
+      <c r="H123" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I123" t="n">
+        <v>9</v>
+      </c>
+      <c r="J123" t="n">
+        <v>23</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0</v>
+      </c>
+      <c r="M123" t="n">
+        <v>0</v>
+      </c>
+      <c r="N123" t="n">
+        <v>39</v>
+      </c>
+      <c r="O123" t="n">
+        <v>0</v>
+      </c>
+      <c r="P123" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>0</v>
+      </c>
+      <c r="R123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B124" t="n">
+        <v>927.8499755859375</v>
+      </c>
+      <c r="C124" t="n">
+        <v>960.1500244140625</v>
+      </c>
+      <c r="D124" t="n">
+        <v>915.0499877929688</v>
+      </c>
+      <c r="E124" t="n">
+        <v>940.3499755859375</v>
+      </c>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="n">
+        <v>231059</v>
+      </c>
+      <c r="H124" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I124" t="n">
+        <v>9</v>
+      </c>
+      <c r="J124" t="n">
+        <v>30</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0</v>
+      </c>
+      <c r="L124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M124" t="n">
+        <v>0</v>
+      </c>
+      <c r="N124" t="n">
+        <v>40</v>
+      </c>
+      <c r="O124" t="n">
+        <v>0</v>
+      </c>
+      <c r="P124" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>0</v>
+      </c>
+      <c r="R124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B125" t="n">
+        <v>940.2999877929688</v>
+      </c>
+      <c r="C125" t="n">
+        <v>977.7000122070312</v>
+      </c>
+      <c r="D125" t="n">
+        <v>908.0999755859375</v>
+      </c>
+      <c r="E125" t="n">
+        <v>948.5</v>
+      </c>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="n">
+        <v>389776</v>
+      </c>
+      <c r="H125" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I125" t="n">
+        <v>10</v>
+      </c>
+      <c r="J125" t="n">
+        <v>7</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M125" t="n">
+        <v>0</v>
+      </c>
+      <c r="N125" t="n">
+        <v>41</v>
+      </c>
+      <c r="O125" t="n">
+        <v>0</v>
+      </c>
+      <c r="P125" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>0</v>
+      </c>
+      <c r="R125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B126" t="n">
+        <v>951.6500244140625</v>
+      </c>
+      <c r="C126" t="n">
+        <v>960.2999877929688</v>
+      </c>
+      <c r="D126" t="n">
+        <v>903.7999877929688</v>
+      </c>
+      <c r="E126" t="n">
+        <v>926.9000244140625</v>
+      </c>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="n">
+        <v>3972359</v>
+      </c>
+      <c r="H126" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I126" t="n">
+        <v>10</v>
+      </c>
+      <c r="J126" t="n">
+        <v>14</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N126" t="n">
+        <v>42</v>
+      </c>
+      <c r="O126" t="n">
+        <v>0</v>
+      </c>
+      <c r="P126" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>0</v>
+      </c>
+      <c r="R126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B127" t="n">
+        <v>943.9000244140625</v>
+      </c>
+      <c r="C127" t="n">
+        <v>943.9000244140625</v>
+      </c>
+      <c r="D127" t="n">
+        <v>778</v>
+      </c>
+      <c r="E127" t="n">
+        <v>789.1500244140625</v>
+      </c>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="n">
+        <v>703836</v>
+      </c>
+      <c r="H127" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I127" t="n">
+        <v>10</v>
+      </c>
+      <c r="J127" t="n">
+        <v>21</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0</v>
+      </c>
+      <c r="M127" t="n">
+        <v>0</v>
+      </c>
+      <c r="N127" t="n">
+        <v>43</v>
+      </c>
+      <c r="O127" t="n">
+        <v>2</v>
+      </c>
+      <c r="P127" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>2</v>
+      </c>
+      <c r="R127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B128" t="n">
+        <v>780</v>
+      </c>
+      <c r="C128" t="n">
+        <v>858.9000244140625</v>
+      </c>
+      <c r="D128" t="n">
+        <v>778.0499877929688</v>
+      </c>
+      <c r="E128" t="n">
+        <v>852.8499755859375</v>
+      </c>
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="n">
+        <v>218102</v>
+      </c>
+      <c r="H128" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I128" t="n">
+        <v>10</v>
+      </c>
+      <c r="J128" t="n">
+        <v>28</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0</v>
+      </c>
+      <c r="L128" t="n">
+        <v>0</v>
+      </c>
+      <c r="M128" t="n">
+        <v>0</v>
+      </c>
+      <c r="N128" t="n">
+        <v>44</v>
+      </c>
+      <c r="O128" t="n">
+        <v>0</v>
+      </c>
+      <c r="P128" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q128" t="n">
+        <v>0</v>
+      </c>
+      <c r="R128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B129" t="n">
+        <v>846</v>
+      </c>
+      <c r="C129" t="n">
+        <v>878.25</v>
+      </c>
+      <c r="D129" t="n">
+        <v>830</v>
+      </c>
+      <c r="E129" t="n">
+        <v>833.5499877929688</v>
+      </c>
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="n">
+        <v>179256</v>
+      </c>
+      <c r="H129" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I129" t="n">
+        <v>11</v>
+      </c>
+      <c r="J129" t="n">
+        <v>4</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0</v>
+      </c>
+      <c r="M129" t="n">
+        <v>0</v>
+      </c>
+      <c r="N129" t="n">
+        <v>45</v>
+      </c>
+      <c r="O129" t="n">
+        <v>0</v>
+      </c>
+      <c r="P129" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q129" t="n">
+        <v>0</v>
+      </c>
+      <c r="R129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B130" t="n">
+        <v>831.0499877929688</v>
+      </c>
+      <c r="C130" t="n">
+        <v>846.2999877929688</v>
+      </c>
+      <c r="D130" t="n">
+        <v>800.9500122070312</v>
+      </c>
+      <c r="E130" t="n">
+        <v>817.0999755859375</v>
+      </c>
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="n">
+        <v>107926</v>
+      </c>
+      <c r="H130" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I130" t="n">
+        <v>11</v>
+      </c>
+      <c r="J130" t="n">
+        <v>11</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0</v>
+      </c>
+      <c r="L130" t="n">
+        <v>0</v>
+      </c>
+      <c r="M130" t="n">
+        <v>0</v>
+      </c>
+      <c r="N130" t="n">
+        <v>46</v>
+      </c>
+      <c r="O130" t="n">
+        <v>0</v>
+      </c>
+      <c r="P130" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>0</v>
+      </c>
+      <c r="R130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B131" t="n">
+        <v>815</v>
+      </c>
+      <c r="C131" t="n">
+        <v>844.5</v>
+      </c>
+      <c r="D131" t="n">
+        <v>800</v>
+      </c>
+      <c r="E131" t="n">
+        <v>813.5999755859375</v>
+      </c>
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="n">
+        <v>88558</v>
+      </c>
+      <c r="H131" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I131" t="n">
+        <v>11</v>
+      </c>
+      <c r="J131" t="n">
+        <v>18</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0</v>
+      </c>
+      <c r="M131" t="n">
+        <v>0</v>
+      </c>
+      <c r="N131" t="n">
+        <v>47</v>
+      </c>
+      <c r="O131" t="n">
+        <v>0</v>
+      </c>
+      <c r="P131" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q131" t="n">
+        <v>0</v>
+      </c>
+      <c r="R131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B132" t="n">
+        <v>815</v>
+      </c>
+      <c r="C132" t="n">
+        <v>838.25</v>
+      </c>
+      <c r="D132" t="n">
+        <v>805</v>
+      </c>
+      <c r="E132" t="n">
+        <v>822.6500244140625</v>
+      </c>
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="n">
+        <v>113559</v>
+      </c>
+      <c r="H132" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I132" t="n">
+        <v>11</v>
+      </c>
+      <c r="J132" t="n">
+        <v>25</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0</v>
+      </c>
+      <c r="L132" t="n">
+        <v>0</v>
+      </c>
+      <c r="M132" t="n">
+        <v>0</v>
+      </c>
+      <c r="N132" t="n">
+        <v>48</v>
+      </c>
+      <c r="O132" t="n">
+        <v>0</v>
+      </c>
+      <c r="P132" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q132" t="n">
+        <v>0</v>
+      </c>
+      <c r="R132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B133" t="n">
+        <v>827</v>
+      </c>
+      <c r="C133" t="n">
+        <v>872</v>
+      </c>
+      <c r="D133" t="n">
+        <v>822.7000122070312</v>
+      </c>
+      <c r="E133" t="n">
+        <v>863</v>
+      </c>
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="n">
+        <v>164645</v>
+      </c>
+      <c r="H133" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I133" t="n">
+        <v>12</v>
+      </c>
+      <c r="J133" t="n">
+        <v>2</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0</v>
+      </c>
+      <c r="L133" t="n">
+        <v>0</v>
+      </c>
+      <c r="M133" t="n">
+        <v>0</v>
+      </c>
+      <c r="N133" t="n">
+        <v>49</v>
+      </c>
+      <c r="O133" t="n">
+        <v>0</v>
+      </c>
+      <c r="P133" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q133" t="n">
+        <v>1</v>
+      </c>
+      <c r="R133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B134" t="n">
+        <v>875</v>
+      </c>
+      <c r="C134" t="n">
+        <v>921.7999877929688</v>
+      </c>
+      <c r="D134" t="n">
+        <v>860</v>
+      </c>
+      <c r="E134" t="n">
+        <v>889.5499877929688</v>
+      </c>
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" t="n">
+        <v>339394</v>
+      </c>
+      <c r="H134" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I134" t="n">
+        <v>12</v>
+      </c>
+      <c r="J134" t="n">
+        <v>9</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0</v>
+      </c>
+      <c r="L134" t="n">
+        <v>0</v>
+      </c>
+      <c r="M134" t="n">
+        <v>0</v>
+      </c>
+      <c r="N134" t="n">
+        <v>50</v>
+      </c>
+      <c r="O134" t="n">
+        <v>0</v>
+      </c>
+      <c r="P134" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q134" t="n">
+        <v>0</v>
+      </c>
+      <c r="R134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B135" t="n">
+        <v>898.5</v>
+      </c>
+      <c r="C135" t="n">
+        <v>913.1500244140625</v>
+      </c>
+      <c r="D135" t="n">
+        <v>865</v>
+      </c>
+      <c r="E135" t="n">
+        <v>876.5499877929688</v>
+      </c>
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" t="n">
+        <v>183182</v>
+      </c>
+      <c r="H135" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I135" t="n">
+        <v>12</v>
+      </c>
+      <c r="J135" t="n">
+        <v>16</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0</v>
+      </c>
+      <c r="L135" t="n">
+        <v>0</v>
+      </c>
+      <c r="M135" t="n">
+        <v>0</v>
+      </c>
+      <c r="N135" t="n">
+        <v>51</v>
+      </c>
+      <c r="O135" t="n">
+        <v>0</v>
+      </c>
+      <c r="P135" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q135" t="n">
+        <v>0</v>
+      </c>
+      <c r="R135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B136" t="n">
+        <v>874</v>
+      </c>
+      <c r="C136" t="n">
+        <v>898.9500122070312</v>
+      </c>
+      <c r="D136" t="n">
+        <v>856.25</v>
+      </c>
+      <c r="E136" t="n">
+        <v>870.0499877929688</v>
+      </c>
+      <c r="F136" t="inlineStr"/>
+      <c r="G136" t="n">
+        <v>118566</v>
+      </c>
+      <c r="H136" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I136" t="n">
+        <v>12</v>
+      </c>
+      <c r="J136" t="n">
+        <v>23</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0</v>
+      </c>
+      <c r="L136" t="n">
+        <v>0</v>
+      </c>
+      <c r="M136" t="n">
+        <v>0</v>
+      </c>
+      <c r="N136" t="n">
+        <v>52</v>
+      </c>
+      <c r="O136" t="n">
+        <v>0</v>
+      </c>
+      <c r="P136" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q136" t="n">
+        <v>0</v>
+      </c>
+      <c r="R136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B137" t="n">
+        <v>895</v>
+      </c>
+      <c r="C137" t="n">
+        <v>925.9500122070312</v>
+      </c>
+      <c r="D137" t="n">
+        <v>864</v>
+      </c>
+      <c r="E137" t="n">
+        <v>905.7000122070312</v>
+      </c>
+      <c r="F137" t="inlineStr"/>
+      <c r="G137" t="n">
+        <v>217484</v>
+      </c>
+      <c r="H137" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I137" t="n">
+        <v>12</v>
+      </c>
+      <c r="J137" t="n">
+        <v>30</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0</v>
+      </c>
+      <c r="L137" t="n">
+        <v>0</v>
+      </c>
+      <c r="M137" t="n">
+        <v>0</v>
+      </c>
+      <c r="N137" t="n">
+        <v>1</v>
+      </c>
+      <c r="O137" t="n">
+        <v>1</v>
+      </c>
+      <c r="P137" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q137" t="n">
+        <v>0</v>
+      </c>
+      <c r="R137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B138" t="n">
+        <v>906</v>
+      </c>
+      <c r="C138" t="n">
+        <v>915</v>
+      </c>
+      <c r="D138" t="n">
+        <v>858.4000244140625</v>
+      </c>
+      <c r="E138" t="n">
+        <v>864.2999877929688</v>
+      </c>
+      <c r="F138" t="inlineStr"/>
+      <c r="G138" t="n">
+        <v>241644</v>
+      </c>
+      <c r="H138" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I138" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" t="n">
+        <v>6</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0</v>
+      </c>
+      <c r="L138" t="n">
+        <v>0</v>
+      </c>
+      <c r="M138" t="n">
+        <v>0</v>
+      </c>
+      <c r="N138" t="n">
+        <v>2</v>
+      </c>
+      <c r="O138" t="n">
+        <v>0</v>
+      </c>
+      <c r="P138" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q138" t="n">
+        <v>0</v>
+      </c>
+      <c r="R138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B139" t="n">
+        <v>842.2999877929688</v>
+      </c>
+      <c r="C139" t="n">
+        <v>920</v>
+      </c>
+      <c r="D139" t="n">
+        <v>814</v>
+      </c>
+      <c r="E139" t="n">
+        <v>821.6500244140625</v>
+      </c>
+      <c r="F139" t="inlineStr"/>
+      <c r="G139" t="n">
+        <v>844975</v>
+      </c>
+      <c r="H139" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I139" t="n">
+        <v>1</v>
+      </c>
+      <c r="J139" t="n">
+        <v>13</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0</v>
+      </c>
+      <c r="L139" t="n">
+        <v>0</v>
+      </c>
+      <c r="M139" t="n">
+        <v>0</v>
+      </c>
+      <c r="N139" t="n">
+        <v>3</v>
+      </c>
+      <c r="O139" t="n">
+        <v>0</v>
+      </c>
+      <c r="P139" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q139" t="n">
+        <v>0</v>
+      </c>
+      <c r="R139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B140" t="n">
+        <v>828.4500122070312</v>
+      </c>
+      <c r="C140" t="n">
+        <v>903.7999877929688</v>
+      </c>
+      <c r="D140" t="n">
+        <v>819.9000244140625</v>
+      </c>
+      <c r="E140" t="n">
+        <v>823.1500244140625</v>
+      </c>
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="n">
+        <v>784560</v>
+      </c>
+      <c r="H140" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I140" t="n">
+        <v>1</v>
+      </c>
+      <c r="J140" t="n">
+        <v>20</v>
+      </c>
+      <c r="K140" t="n">
+        <v>0</v>
+      </c>
+      <c r="L140" t="n">
+        <v>0</v>
+      </c>
+      <c r="M140" t="n">
+        <v>0</v>
+      </c>
+      <c r="N140" t="n">
+        <v>4</v>
+      </c>
+      <c r="O140" t="n">
+        <v>0</v>
+      </c>
+      <c r="P140" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q140" t="n">
+        <v>0</v>
+      </c>
+      <c r="R140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B141" t="n">
+        <v>818</v>
+      </c>
+      <c r="C141" t="n">
+        <v>830.7000122070312</v>
+      </c>
+      <c r="D141" t="n">
+        <v>786.5</v>
+      </c>
+      <c r="E141" t="n">
+        <v>829.1500244140625</v>
+      </c>
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="n">
+        <v>134156</v>
+      </c>
+      <c r="H141" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I141" t="n">
+        <v>1</v>
+      </c>
+      <c r="J141" t="n">
+        <v>27</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0</v>
+      </c>
+      <c r="L141" t="n">
+        <v>0</v>
+      </c>
+      <c r="M141" t="n">
+        <v>0</v>
+      </c>
+      <c r="N141" t="n">
+        <v>5</v>
+      </c>
+      <c r="O141" t="n">
+        <v>0</v>
+      </c>
+      <c r="P141" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q141" t="n">
+        <v>0</v>
+      </c>
+      <c r="R141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B142" t="n">
+        <v>818.5499877929688</v>
+      </c>
+      <c r="C142" t="n">
+        <v>868.2000122070312</v>
+      </c>
+      <c r="D142" t="n">
+        <v>812.5499877929688</v>
+      </c>
+      <c r="E142" t="n">
+        <v>861.5999755859375</v>
+      </c>
+      <c r="F142" t="inlineStr"/>
+      <c r="G142" t="n">
+        <v>122396</v>
+      </c>
+      <c r="H142" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I142" t="n">
+        <v>2</v>
+      </c>
+      <c r="J142" t="n">
+        <v>3</v>
+      </c>
+      <c r="K142" t="n">
+        <v>0</v>
+      </c>
+      <c r="L142" t="n">
+        <v>0</v>
+      </c>
+      <c r="M142" t="n">
+        <v>0</v>
+      </c>
+      <c r="N142" t="n">
+        <v>6</v>
+      </c>
+      <c r="O142" t="n">
+        <v>0</v>
+      </c>
+      <c r="P142" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q142" t="n">
+        <v>0</v>
+      </c>
+      <c r="R142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B143" t="n">
+        <v>857.5</v>
+      </c>
+      <c r="C143" t="n">
+        <v>863.9000244140625</v>
+      </c>
+      <c r="D143" t="n">
+        <v>760.5</v>
+      </c>
+      <c r="E143" t="n">
+        <v>771.2000122070312</v>
+      </c>
+      <c r="F143" t="inlineStr"/>
+      <c r="G143" t="n">
+        <v>201286</v>
+      </c>
+      <c r="H143" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I143" t="n">
+        <v>2</v>
+      </c>
+      <c r="J143" t="n">
+        <v>10</v>
+      </c>
+      <c r="K143" t="n">
+        <v>0</v>
+      </c>
+      <c r="L143" t="n">
+        <v>0</v>
+      </c>
+      <c r="M143" t="n">
+        <v>0</v>
+      </c>
+      <c r="N143" t="n">
+        <v>7</v>
+      </c>
+      <c r="O143" t="n">
+        <v>0</v>
+      </c>
+      <c r="P143" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q143" t="n">
+        <v>2</v>
+      </c>
+      <c r="R143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B144" t="n">
+        <v>771.2000122070312</v>
+      </c>
+      <c r="C144" t="n">
+        <v>788</v>
+      </c>
+      <c r="D144" t="n">
+        <v>750</v>
+      </c>
+      <c r="E144" t="n">
+        <v>757.25</v>
+      </c>
+      <c r="F144" t="inlineStr"/>
+      <c r="G144" t="n">
+        <v>148791</v>
+      </c>
+      <c r="H144" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I144" t="n">
+        <v>2</v>
+      </c>
+      <c r="J144" t="n">
+        <v>17</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0</v>
+      </c>
+      <c r="L144" t="n">
+        <v>0</v>
+      </c>
+      <c r="M144" t="n">
+        <v>0</v>
+      </c>
+      <c r="N144" t="n">
+        <v>8</v>
+      </c>
+      <c r="O144" t="n">
+        <v>0</v>
+      </c>
+      <c r="P144" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q144" t="n">
+        <v>0</v>
+      </c>
+      <c r="R144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B145" t="n">
+        <v>755</v>
+      </c>
+      <c r="C145" t="n">
+        <v>863.7999877929688</v>
+      </c>
+      <c r="D145" t="n">
+        <v>738.5</v>
+      </c>
+      <c r="E145" t="n">
+        <v>855.3499755859375</v>
+      </c>
+      <c r="F145" t="inlineStr"/>
+      <c r="G145" t="n">
+        <v>612885</v>
+      </c>
+      <c r="H145" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I145" t="n">
+        <v>2</v>
+      </c>
+      <c r="J145" t="n">
+        <v>24</v>
+      </c>
+      <c r="K145" t="n">
+        <v>0</v>
+      </c>
+      <c r="L145" t="n">
+        <v>0</v>
+      </c>
+      <c r="M145" t="n">
+        <v>0</v>
+      </c>
+      <c r="N145" t="n">
+        <v>9</v>
+      </c>
+      <c r="O145" t="n">
+        <v>0</v>
+      </c>
+      <c r="P145" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q145" t="n">
+        <v>0</v>
+      </c>
+      <c r="R145" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/AETHER.NS.xlsx
+++ b/stock_historical_data/1wk/AETHER.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R145"/>
+  <dimension ref="A1:R149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5451,7 +5451,7 @@
         <v>0</v>
       </c>
       <c r="Q89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R89" t="n">
         <v>0</v>
@@ -6683,7 +6683,9 @@
       <c r="Q111" t="n">
         <v>0</v>
       </c>
-      <c r="R111" t="inlineStr"/>
+      <c r="R111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -6735,7 +6737,9 @@
       <c r="Q112" t="n">
         <v>0</v>
       </c>
-      <c r="R112" t="inlineStr"/>
+      <c r="R112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -6787,7 +6791,9 @@
       <c r="Q113" t="n">
         <v>1</v>
       </c>
-      <c r="R113" t="inlineStr"/>
+      <c r="R113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -6839,7 +6845,9 @@
       <c r="Q114" t="n">
         <v>0</v>
       </c>
-      <c r="R114" t="inlineStr"/>
+      <c r="R114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -6891,7 +6899,9 @@
       <c r="Q115" t="n">
         <v>0</v>
       </c>
-      <c r="R115" t="inlineStr"/>
+      <c r="R115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
@@ -6943,7 +6953,9 @@
       <c r="Q116" t="n">
         <v>2</v>
       </c>
-      <c r="R116" t="inlineStr"/>
+      <c r="R116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -6995,7 +7007,9 @@
       <c r="Q117" t="n">
         <v>0</v>
       </c>
-      <c r="R117" t="inlineStr"/>
+      <c r="R117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
@@ -7047,7 +7061,9 @@
       <c r="Q118" t="n">
         <v>0</v>
       </c>
-      <c r="R118" t="inlineStr"/>
+      <c r="R118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -7099,7 +7115,9 @@
       <c r="Q119" t="n">
         <v>0</v>
       </c>
-      <c r="R119" t="inlineStr"/>
+      <c r="R119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -7151,7 +7169,9 @@
       <c r="Q120" t="n">
         <v>0</v>
       </c>
-      <c r="R120" t="inlineStr"/>
+      <c r="R120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
@@ -7203,7 +7223,9 @@
       <c r="Q121" t="n">
         <v>0</v>
       </c>
-      <c r="R121" t="inlineStr"/>
+      <c r="R121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
@@ -7255,7 +7277,9 @@
       <c r="Q122" t="n">
         <v>0</v>
       </c>
-      <c r="R122" t="inlineStr"/>
+      <c r="R122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -7307,7 +7331,9 @@
       <c r="Q123" t="n">
         <v>0</v>
       </c>
-      <c r="R123" t="inlineStr"/>
+      <c r="R123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
@@ -7359,7 +7385,9 @@
       <c r="Q124" t="n">
         <v>0</v>
       </c>
-      <c r="R124" t="inlineStr"/>
+      <c r="R124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -7411,7 +7439,9 @@
       <c r="Q125" t="n">
         <v>0</v>
       </c>
-      <c r="R125" t="inlineStr"/>
+      <c r="R125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
@@ -7463,7 +7493,9 @@
       <c r="Q126" t="n">
         <v>0</v>
       </c>
-      <c r="R126" t="inlineStr"/>
+      <c r="R126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
@@ -7515,7 +7547,9 @@
       <c r="Q127" t="n">
         <v>2</v>
       </c>
-      <c r="R127" t="inlineStr"/>
+      <c r="R127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
@@ -7567,7 +7601,9 @@
       <c r="Q128" t="n">
         <v>0</v>
       </c>
-      <c r="R128" t="inlineStr"/>
+      <c r="R128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
@@ -7619,7 +7655,9 @@
       <c r="Q129" t="n">
         <v>0</v>
       </c>
-      <c r="R129" t="inlineStr"/>
+      <c r="R129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
@@ -7671,7 +7709,9 @@
       <c r="Q130" t="n">
         <v>0</v>
       </c>
-      <c r="R130" t="inlineStr"/>
+      <c r="R130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
@@ -7723,7 +7763,9 @@
       <c r="Q131" t="n">
         <v>0</v>
       </c>
-      <c r="R131" t="inlineStr"/>
+      <c r="R131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
@@ -7775,7 +7817,9 @@
       <c r="Q132" t="n">
         <v>0</v>
       </c>
-      <c r="R132" t="inlineStr"/>
+      <c r="R132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
@@ -7827,7 +7871,9 @@
       <c r="Q133" t="n">
         <v>1</v>
       </c>
-      <c r="R133" t="inlineStr"/>
+      <c r="R133" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
@@ -7879,7 +7925,9 @@
       <c r="Q134" t="n">
         <v>0</v>
       </c>
-      <c r="R134" t="inlineStr"/>
+      <c r="R134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
@@ -7931,7 +7979,9 @@
       <c r="Q135" t="n">
         <v>0</v>
       </c>
-      <c r="R135" t="inlineStr"/>
+      <c r="R135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
@@ -7983,7 +8033,9 @@
       <c r="Q136" t="n">
         <v>0</v>
       </c>
-      <c r="R136" t="inlineStr"/>
+      <c r="R136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
@@ -8035,7 +8087,9 @@
       <c r="Q137" t="n">
         <v>0</v>
       </c>
-      <c r="R137" t="inlineStr"/>
+      <c r="R137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
@@ -8087,7 +8141,9 @@
       <c r="Q138" t="n">
         <v>0</v>
       </c>
-      <c r="R138" t="inlineStr"/>
+      <c r="R138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
@@ -8139,7 +8195,9 @@
       <c r="Q139" t="n">
         <v>0</v>
       </c>
-      <c r="R139" t="inlineStr"/>
+      <c r="R139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
@@ -8191,7 +8249,9 @@
       <c r="Q140" t="n">
         <v>0</v>
       </c>
-      <c r="R140" t="inlineStr"/>
+      <c r="R140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
@@ -8243,7 +8303,9 @@
       <c r="Q141" t="n">
         <v>0</v>
       </c>
-      <c r="R141" t="inlineStr"/>
+      <c r="R141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
@@ -8295,7 +8357,9 @@
       <c r="Q142" t="n">
         <v>0</v>
       </c>
-      <c r="R142" t="inlineStr"/>
+      <c r="R142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
@@ -8347,7 +8411,9 @@
       <c r="Q143" t="n">
         <v>2</v>
       </c>
-      <c r="R143" t="inlineStr"/>
+      <c r="R143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
@@ -8399,7 +8465,9 @@
       <c r="Q144" t="n">
         <v>0</v>
       </c>
-      <c r="R144" t="inlineStr"/>
+      <c r="R144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
@@ -8451,7 +8519,217 @@
       <c r="Q145" t="n">
         <v>0</v>
       </c>
-      <c r="R145" t="inlineStr"/>
+      <c r="R145" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B146" t="n">
+        <v>854.0499877929688</v>
+      </c>
+      <c r="C146" t="n">
+        <v>930</v>
+      </c>
+      <c r="D146" t="n">
+        <v>837</v>
+      </c>
+      <c r="E146" t="n">
+        <v>912.7000122070312</v>
+      </c>
+      <c r="F146" t="inlineStr"/>
+      <c r="G146" t="n">
+        <v>1045910</v>
+      </c>
+      <c r="H146" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I146" t="n">
+        <v>3</v>
+      </c>
+      <c r="J146" t="n">
+        <v>3</v>
+      </c>
+      <c r="K146" t="n">
+        <v>0</v>
+      </c>
+      <c r="L146" t="n">
+        <v>0</v>
+      </c>
+      <c r="M146" t="n">
+        <v>0</v>
+      </c>
+      <c r="N146" t="n">
+        <v>10</v>
+      </c>
+      <c r="O146" t="n">
+        <v>0</v>
+      </c>
+      <c r="P146" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q146" t="n">
+        <v>0</v>
+      </c>
+      <c r="R146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B147" t="n">
+        <v>903.5999755859375</v>
+      </c>
+      <c r="C147" t="n">
+        <v>938.5</v>
+      </c>
+      <c r="D147" t="n">
+        <v>882.9000244140625</v>
+      </c>
+      <c r="E147" t="n">
+        <v>891.6500244140625</v>
+      </c>
+      <c r="F147" t="inlineStr"/>
+      <c r="G147" t="n">
+        <v>428789</v>
+      </c>
+      <c r="H147" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I147" t="n">
+        <v>3</v>
+      </c>
+      <c r="J147" t="n">
+        <v>10</v>
+      </c>
+      <c r="K147" t="n">
+        <v>0</v>
+      </c>
+      <c r="L147" t="n">
+        <v>0</v>
+      </c>
+      <c r="M147" t="n">
+        <v>0</v>
+      </c>
+      <c r="N147" t="n">
+        <v>11</v>
+      </c>
+      <c r="O147" t="n">
+        <v>0</v>
+      </c>
+      <c r="P147" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q147" t="n">
+        <v>0</v>
+      </c>
+      <c r="R147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B148" t="n">
+        <v>888.7000122070312</v>
+      </c>
+      <c r="C148" t="n">
+        <v>895.4500122070312</v>
+      </c>
+      <c r="D148" t="n">
+        <v>846.5499877929688</v>
+      </c>
+      <c r="E148" t="n">
+        <v>874.25</v>
+      </c>
+      <c r="F148" t="inlineStr"/>
+      <c r="G148" t="n">
+        <v>207025</v>
+      </c>
+      <c r="H148" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I148" t="n">
+        <v>3</v>
+      </c>
+      <c r="J148" t="n">
+        <v>17</v>
+      </c>
+      <c r="K148" t="n">
+        <v>0</v>
+      </c>
+      <c r="L148" t="n">
+        <v>0</v>
+      </c>
+      <c r="M148" t="n">
+        <v>0</v>
+      </c>
+      <c r="N148" t="n">
+        <v>12</v>
+      </c>
+      <c r="O148" t="n">
+        <v>0</v>
+      </c>
+      <c r="P148" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q148" t="n">
+        <v>0</v>
+      </c>
+      <c r="R148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B149" t="n">
+        <v>881.0999755859375</v>
+      </c>
+      <c r="C149" t="n">
+        <v>897.6500244140625</v>
+      </c>
+      <c r="D149" t="n">
+        <v>823</v>
+      </c>
+      <c r="E149" t="n">
+        <v>831</v>
+      </c>
+      <c r="F149" t="inlineStr"/>
+      <c r="G149" t="n">
+        <v>364972</v>
+      </c>
+      <c r="H149" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I149" t="n">
+        <v>3</v>
+      </c>
+      <c r="J149" t="n">
+        <v>24</v>
+      </c>
+      <c r="K149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N149" t="n">
+        <v>13</v>
+      </c>
+      <c r="O149" t="n">
+        <v>0</v>
+      </c>
+      <c r="P149" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q149" t="n">
+        <v>0</v>
+      </c>
+      <c r="R149" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
